--- a/stockquotes.xlsx
+++ b/stockquotes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Desktop\Power BI\AAAA\6 LIVE\yfinance-powerbi-live-stock-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200FCC54-AF6F-40FA-AC00-ABB9223184BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75F9379-781B-4909-B0B9-F8AD7C07A2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
   <si>
     <t>quotes</t>
   </si>
@@ -57,18 +57,12 @@
     <t>TATA STEEL LTD</t>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
     <t>SAIL - Steel Authority of India Limited</t>
   </si>
   <si>
     <t>SAIL.NS</t>
   </si>
   <si>
-    <t>Power</t>
-  </si>
-  <si>
     <t>NTPC Limited</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>HCLTECH.NS</t>
   </si>
   <si>
-    <t>Automotive</t>
-  </si>
-  <si>
     <t>Mahindra &amp; Mahindra Limited</t>
   </si>
   <si>
@@ -135,9 +126,6 @@
     <t>EICHERMOT.NS</t>
   </si>
   <si>
-    <t>Pharmaceutical</t>
-  </si>
-  <si>
     <t>Sun Pharmaceutical Industries Ltd.</t>
   </si>
   <si>
@@ -217,6 +205,69 @@
   </si>
   <si>
     <t>AAPL</t>
+  </si>
+  <si>
+    <t>Tata Motors Limited</t>
+  </si>
+  <si>
+    <t>TATAMOTORS.NS</t>
+  </si>
+  <si>
+    <t>Adani Enterprises Limited</t>
+  </si>
+  <si>
+    <t>ADANIENT.NS</t>
+  </si>
+  <si>
+    <t>Auto Manufacturers</t>
+  </si>
+  <si>
+    <t>Farm &amp; Heavy Construction Machinery</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Information Technology Services</t>
+  </si>
+  <si>
+    <t>Consumer Electronics</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Drug Manufacturers - Specialty &amp; Generic</t>
+  </si>
+  <si>
+    <t>Drug Manufacturers - General</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Utilities - Regulated Electric</t>
+  </si>
+  <si>
+    <t>Utilities - Renewable</t>
+  </si>
+  <si>
+    <t>Utilities - Independent Power Producers</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
+    <t>Thermal Coal</t>
+  </si>
+  <si>
+    <t>Industrials</t>
   </si>
 </sst>
 </file>
@@ -297,12 +348,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37B87E1F-39A0-4816-9D28-41E37B62AB28}" name="Table1" displayName="Table1" ref="A1:C24" totalsRowShown="0">
-  <autoFilter ref="A1:C24" xr:uid="{37B87E1F-39A0-4816-9D28-41E37B62AB28}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37B87E1F-39A0-4816-9D28-41E37B62AB28}" name="Table1" displayName="Table1" ref="A1:D26" totalsRowShown="0">
+  <autoFilter ref="A1:D26" xr:uid="{37B87E1F-39A0-4816-9D28-41E37B62AB28}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D26">
+    <sortCondition ref="C1:C26"/>
+  </sortState>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3F7AF93A-FF1D-4DD7-B262-E4A0F43AA7CD}" name="quotes"/>
     <tableColumn id="2" xr3:uid="{E7D1B740-6193-48A0-BC0C-C9F9E95A155B}" name="Name"/>
     <tableColumn id="3" xr3:uid="{CD0A900F-2AF7-4303-883D-62EA6F1000D0}" name="Sector"/>
+    <tableColumn id="4" xr3:uid="{E2A10DD8-8994-4096-9E5C-4132971D4BED}" name="Industry"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -582,20 +637,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -603,10 +659,13 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -614,249 +673,346 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -875,112 +1031,112 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{FC0EBE3F-EB4D-4700-A356-D1BAA2A0DA25}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{0217E981-EC0E-45C6-93FF-3EB11A253512}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{63E6703A-700D-4E0A-B885-FBC127D61B7F}"/>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{8D3DCDD0-4A53-4777-85A5-34C0BF7366BF}"/>
+    <hyperlink ref="A9" r:id="rId2" xr:uid="{F264DC67-2AC6-421B-B296-B5DE353D9DBA}"/>
+    <hyperlink ref="A6:A7" r:id="rId3" display="lokeshmsd00739@gmail.com" xr:uid="{837219FE-525C-4B74-B838-680235E8BAEE}"/>
     <hyperlink ref="A3" r:id="rId4" xr:uid="{AF65AF0C-7CCE-473A-A3A7-669E20472EAD}"/>
-    <hyperlink ref="A6:A7" r:id="rId5" display="lokeshmsd00739@gmail.com" xr:uid="{837219FE-525C-4B74-B838-680235E8BAEE}"/>
-    <hyperlink ref="A9" r:id="rId6" xr:uid="{F264DC67-2AC6-421B-B296-B5DE353D9DBA}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{8D3DCDD0-4A53-4777-85A5-34C0BF7366BF}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{63E6703A-700D-4E0A-B885-FBC127D61B7F}"/>
+    <hyperlink ref="A5" r:id="rId6" xr:uid="{0217E981-EC0E-45C6-93FF-3EB11A253512}"/>
+    <hyperlink ref="A2" r:id="rId7" xr:uid="{FC0EBE3F-EB4D-4700-A356-D1BAA2A0DA25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
